--- a/medicine/Sexualité et sexologie/Playgirl/Playgirl.xlsx
+++ b/medicine/Sexualité et sexologie/Playgirl/Playgirl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Playgirl est un magazine mensuel publié aux États-Unis qui présente des hommes nus ou semi-nus. Le magazine a été fondé en 1973 durant le mouvement féministe en réponse aux magazines érotiques masculins tels que Playboy et Penthouse qui présentaient des images similaires de femmes.
-Le magazine cible principalement des femmes hétérosexuelles. Malgré cela, la rédactrice en chef remarquait, en 2003, que le magazine attire également un lectorat gay non négligeable. « C'est un magazine pour femmes, explique-t-elle, parce qu'il n'y a aucun autre magazine à s'adresser aux femmes de la façon dont nous le faisons. » Elle ajoute « que nous aimons aussi nos lecteurs gays, et le lectorat gay du magazine est d'environ 30 % »[1]. Cependant Mark Graff, le président de Trans Digital Media, la firme de management qui s'occupe de Playgirl TV, estime pour sa part que le lectorat gay du magazine s’élèverait à 50 %[2].
+Le magazine cible principalement des femmes hétérosexuelles. Malgré cela, la rédactrice en chef remarquait, en 2003, que le magazine attire également un lectorat gay non négligeable. « C'est un magazine pour femmes, explique-t-elle, parce qu'il n'y a aucun autre magazine à s'adresser aux femmes de la façon dont nous le faisons. » Elle ajoute « que nous aimons aussi nos lecteurs gays, et le lectorat gay du magazine est d'environ 30 % ». Cependant Mark Graff, le président de Trans Digital Media, la firme de management qui s'occupe de Playgirl TV, estime pour sa part que le lectorat gay du magazine s’élèverait à 50 %.
 </t>
         </is>
       </c>
